--- a/data/TC009.xlsx
+++ b/data/TC009.xlsx
@@ -33,21 +33,9 @@
     <t>emailUsername</t>
   </si>
   <si>
-    <t>freetest@urcomp.com</t>
-  </si>
-  <si>
-    <t>09safepass</t>
-  </si>
-  <si>
     <t>Verify Your Identity</t>
   </si>
   <si>
-    <t>portgsr007@gmail.com</t>
-  </si>
-  <si>
-    <t>gsrtest#123</t>
-  </si>
-  <si>
     <t>lastName</t>
   </si>
   <si>
@@ -60,10 +48,22 @@
     <t>Open - Not Contacted</t>
   </si>
   <si>
-    <t>AlphaLast</t>
-  </si>
-  <si>
-    <t>Alpha inc</t>
+    <t>antman@inc.com</t>
+  </si>
+  <si>
+    <t>hunt@007</t>
+  </si>
+  <si>
+    <t>antman.hunt@gmail.com</t>
+  </si>
+  <si>
+    <t>hunt#123</t>
+  </si>
+  <si>
+    <t>Antony Joseph Rajenderan</t>
+  </si>
+  <si>
+    <t>Alpha com</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,9 +420,9 @@
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -444,30 +444,30 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
